--- a/data/Hive_Map_Database2.xlsx
+++ b/data/Hive_Map_Database2.xlsx
@@ -15633,236 +15633,236 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B3" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>348.7444432128562</v>
+        <v>350.74550484845258</v>
       </c>
       <c r="E3" s="2">
-        <v>168.7444432128562</v>
+        <v>170.74550484845258</v>
       </c>
       <c r="F3" s="2">
-        <v>0.072017076417361381</v>
+        <v>0.019675075514620399</v>
       </c>
       <c r="G3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>10.000999999999999</v>
+        <v>7.0010000000000003</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B4" s="1">
         <v>8</v>
       </c>
       <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>218.06988742113751</v>
+      </c>
+      <c r="E4" s="2">
+        <v>38.069887421137501</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.0083307846535043521</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>7.0010000000000003</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
-        <v>350.74550484845258</v>
+      <c r="D5" s="2">
+        <v>358.69331543032581</v>
       </c>
-      <c r="E4" s="2">
-        <v>170.74550484845258</v>
+      <c r="E5" s="2">
+        <v>178.69331543032578</v>
       </c>
-      <c r="F4" s="2">
-        <v>0.019675075514620399</v>
+      <c r="F5" s="2">
+        <v>0.020347953788212133</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
-        <v>7.0999999999999996</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1">
-        <v>1005</v>
-      </c>
-      <c r="B5" s="1">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2">
-        <v>218.06988742113751</v>
-      </c>
-      <c r="E5" s="2">
-        <v>38.069887421137501</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.0083307846535043521</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
       <c r="H5" s="2">
-        <v>7.0999999999999996</v>
+        <v>7.0010000000000003</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B6" s="1">
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>358.69331543032581</v>
+        <v>168.69725918452605</v>
       </c>
       <c r="E6" s="2">
-        <v>178.69331543032578</v>
+        <v>348.69725918452605</v>
       </c>
       <c r="F6" s="2">
-        <v>0.020347953788212133</v>
+        <v>0.048203475614119973</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>7.0999999999999996</v>
+        <v>7.0010000000000003</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B7" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>168.69725918452605</v>
+        <v>198.65774942341409</v>
       </c>
       <c r="E7" s="2">
-        <v>348.69725918452605</v>
+        <v>18.657749423414074</v>
       </c>
       <c r="F7" s="2">
-        <v>0.048203475614119973</v>
+        <v>0.030613089139273079</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>7.0999999999999996</v>
+        <v>7.0010000000000003</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>198.65774942341409</v>
+        <v>172.88762055557208</v>
       </c>
       <c r="E8" s="2">
-        <v>18.657749423414074</v>
+        <v>352.88762055557208</v>
       </c>
       <c r="F8" s="2">
-        <v>0.030613089139273079</v>
+        <v>0.053487017320475783</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>7.0999999999999996</v>
+        <v>7.0010000000000003</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2">
-        <v>172.88762055557208</v>
+        <v>111.93877624105005</v>
       </c>
       <c r="E9" s="2">
-        <v>352.88762055557208</v>
+        <v>291.93877624105005</v>
       </c>
       <c r="F9" s="2">
-        <v>0.053487017320475783</v>
+        <v>0.013610634551630163</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>7.0999999999999996</v>
+        <v>7.0010000000000003</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>111.93877624105005</v>
+        <v>26.561640221446737</v>
       </c>
       <c r="E10" s="2">
-        <v>291.93877624105005</v>
+        <v>206.56164022144677</v>
       </c>
       <c r="F10" s="2">
-        <v>0.013610634551630163</v>
+        <v>0.025013067947655503</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>7.0999999999999996</v>
+        <v>3.0009999999999999</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2">
-        <v>26.561640221446737</v>
+        <v>348.7444432128562</v>
       </c>
       <c r="E11" s="2">
-        <v>206.56164022144677</v>
+        <v>168.7444432128562</v>
       </c>
       <c r="F11" s="2">
-        <v>0.025013067947655503</v>
+        <v>0.072017076417361381</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>3.0009999999999999</v>
+        <v>10.000999999999999</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">

--- a/data/Hive_Map_Database2.xlsx
+++ b/data/Hive_Map_Database2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="INFORMATION"/>
@@ -8476,7 +8476,7 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8631,191 +8631,353 @@
       <c r="E11" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="9">
+        <v>12</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2.2374918</v>
+      </c>
+      <c r="C12" s="10">
+        <v>48.8944609</v>
+      </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="9">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2.2362951</v>
+      </c>
+      <c r="C13" s="10">
+        <v>48.8939298</v>
+      </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="9">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2.2360742</v>
+      </c>
+      <c r="C14" s="10">
+        <v>48.8947459</v>
+      </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="9">
+        <v>15</v>
+      </c>
+      <c r="B15" s="10">
+        <v>2.236757</v>
+      </c>
+      <c r="C15" s="10">
+        <v>48.8945557</v>
+      </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="9">
+        <v>16</v>
+      </c>
+      <c r="B16" s="10">
+        <v>2.2360694</v>
+      </c>
+      <c r="C16" s="10">
+        <v>48.8939263</v>
+      </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="9">
+        <v>17</v>
+      </c>
+      <c r="B17" s="10">
+        <v>2.2355683</v>
+      </c>
+      <c r="C17" s="10">
+        <v>48.8945601</v>
+      </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="9">
+        <v>18</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2.2351141</v>
+      </c>
+      <c r="C18" s="10">
+        <v>48.895671</v>
+      </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="9">
+        <v>19</v>
+      </c>
+      <c r="B19" s="10">
+        <v>2.2350169</v>
+      </c>
+      <c r="C19" s="10">
+        <v>48.8956946</v>
+      </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="9">
+        <v>20</v>
+      </c>
+      <c r="B20" s="10">
+        <v>2.2347467</v>
+      </c>
+      <c r="C20" s="10">
+        <v>48.8960464</v>
+      </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="9">
+        <v>21</v>
+      </c>
+      <c r="B21" s="10">
+        <v>2.2361521</v>
+      </c>
+      <c r="C21" s="10">
+        <v>48.8937014</v>
+      </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="9">
+        <v>22</v>
+      </c>
+      <c r="B22" s="10">
+        <v>2.236032</v>
+      </c>
+      <c r="C22" s="10">
+        <v>48.8935537</v>
+      </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="9">
+        <v>23</v>
+      </c>
+      <c r="B23" s="10">
+        <v>2.2358143</v>
+      </c>
+      <c r="C23" s="10">
+        <v>48.8932807</v>
+      </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="A24" s="12">
+        <v>24</v>
+      </c>
+      <c r="B24" s="13">
+        <v>2.2369257</v>
+      </c>
+      <c r="C24" s="13">
+        <v>48.8927095</v>
+      </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="12">
+        <v>25</v>
+      </c>
+      <c r="B25" s="13">
+        <v>2.2361418</v>
+      </c>
+      <c r="C25" s="13">
+        <v>48.8918928</v>
+      </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="A26" s="12">
+        <v>26</v>
+      </c>
+      <c r="B26" s="13">
+        <v>2.234673</v>
+      </c>
+      <c r="C26" s="13">
+        <v>48.8923358</v>
+      </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="A27" s="12">
+        <v>27</v>
+      </c>
+      <c r="B27" s="13">
+        <v>2.2355558</v>
+      </c>
+      <c r="C27" s="13">
+        <v>48.8932808</v>
+      </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="A28" s="12">
+        <v>28</v>
+      </c>
+      <c r="B28" s="13">
+        <v>2.2338653</v>
+      </c>
+      <c r="C28" s="13">
+        <v>48.8925148</v>
+      </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="A29" s="12">
+        <v>29</v>
+      </c>
+      <c r="B29" s="13">
+        <v>2.2323333</v>
+      </c>
+      <c r="C29" s="13">
+        <v>48.8921915</v>
+      </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="A30" s="12">
+        <v>30</v>
+      </c>
+      <c r="B30" s="13">
+        <v>2.2314304</v>
+      </c>
+      <c r="C30" s="13">
+        <v>48.8920757</v>
+      </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="A31" s="12">
+        <v>31</v>
+      </c>
+      <c r="B31" s="13">
+        <v>2.2313518</v>
+      </c>
+      <c r="C31" s="13">
+        <v>48.8918374</v>
+      </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="A32" s="12">
+        <v>32</v>
+      </c>
+      <c r="B32" s="13">
+        <v>2.2312611</v>
+      </c>
+      <c r="C32" s="13">
+        <v>48.8916581</v>
+      </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="A33" s="12">
+        <v>33</v>
+      </c>
+      <c r="B33" s="13">
+        <v>2.2317333</v>
+      </c>
+      <c r="C33" s="13">
+        <v>48.8933558</v>
+      </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="A34" s="12">
+        <v>34</v>
+      </c>
+      <c r="B34" s="13">
+        <v>2.2313726</v>
+      </c>
+      <c r="C34" s="13">
+        <v>48.8934799</v>
+      </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="A35" s="12">
+        <v>35</v>
+      </c>
+      <c r="B35" s="13">
+        <v>2.2308051</v>
+      </c>
+      <c r="C35" s="13">
+        <v>48.8936364</v>
+      </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="A36" s="12">
+        <v>36</v>
+      </c>
+      <c r="B36" s="13">
+        <v>2.2306526</v>
+      </c>
+      <c r="C36" s="13">
+        <v>48.8934287</v>
+      </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="A37" s="12">
+        <v>37</v>
+      </c>
+      <c r="B37" s="13">
+        <v>2.233656</v>
+      </c>
+      <c r="C37" s="13">
+        <v>48.8929592</v>
+      </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="15.75">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="A38" s="12">
+        <v>38</v>
+      </c>
+      <c r="B38" s="13">
+        <v>2.2319522</v>
+      </c>
+      <c r="C38" s="13">
+        <v>48.8935127</v>
+      </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
     </row>
@@ -15565,7 +15727,7 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15579,7 +15741,7 @@
     <col min="8" max="8" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1">
         <v>1001</v>
       </c>
@@ -15602,10 +15764,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="2">
-        <v>3.0009999999999999</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
         <v>1002</v>
       </c>
@@ -15631,7 +15793,7 @@
         <v>10.000999999999999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
         <v>1004</v>
       </c>
@@ -15651,13 +15813,13 @@
         <v>0.019675075514620399</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>7.0010000000000003</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1">
         <v>1005</v>
       </c>
@@ -15680,10 +15842,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>7.0010000000000003</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1">
         <v>1006</v>
       </c>
@@ -15706,10 +15868,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>7.0010000000000003</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1">
         <v>1007</v>
       </c>
@@ -15732,10 +15894,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>7.0010000000000003</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1">
         <v>1008</v>
       </c>
@@ -15758,10 +15920,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>7.0010000000000003</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1">
         <v>1009</v>
       </c>
@@ -15784,10 +15946,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>7.0010000000000003</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1">
         <v>1010</v>
       </c>
@@ -15810,10 +15972,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>7.0010000000000003</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1">
         <v>1011</v>
       </c>
@@ -15836,10 +15998,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>3.0009999999999999</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1">
         <v>1003</v>
       </c>
@@ -15865,305 +16027,785 @@
         <v>10.000999999999999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="2"/>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2">
+        <v>351.368827568911</v>
+      </c>
+      <c r="E12" s="2">
+        <v>171.36882756891097</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.043822414254654891</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B13" s="1">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2">
+        <v>320.64456121101387</v>
+      </c>
+      <c r="E13" s="2">
+        <v>140.64456121101389</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.0075747138105967489</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B14" s="1">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2">
+        <v>228.66258726150886</v>
+      </c>
+      <c r="E14" s="2">
+        <v>48.662587261508861</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.10056363611653148</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B15" s="1">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2">
+        <v>15.285409686395099</v>
+      </c>
+      <c r="E15" s="2">
+        <v>195.2854096863951</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.026243186653839266</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2">
+        <v>122.97288790946999</v>
+      </c>
+      <c r="E16" s="2">
+        <v>302.97288790946999</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.054741942044905574</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2">
+        <v>144.47091615317612</v>
+      </c>
+      <c r="E17" s="2">
+        <v>324.47091615317612</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.054211456565355712</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2">
+        <v>28.3157472843547</v>
+      </c>
+      <c r="E18" s="2">
+        <v>208.3157472843547</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.042363010877852242</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="1">
+        <v>1019</v>
+      </c>
+      <c r="B19" s="1">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2">
+        <v>171.07388348649522</v>
+      </c>
+      <c r="E19" s="2">
+        <v>351.07388348649522</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.0794276552910404</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="1">
+        <v>1020</v>
+      </c>
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
+        <v>265.56980795083325</v>
+      </c>
+      <c r="E20" s="2">
+        <v>85.569807950833265</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.01650453927645773</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="1">
+        <v>1021</v>
+      </c>
+      <c r="B21" s="1">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2">
+        <v>188.34011664676507</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8.3401166467650771</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.077356056582457089</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B22" s="1">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2">
+        <v>6.9684841909124771</v>
+      </c>
+      <c r="E22" s="2">
+        <v>186.96848419091251</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.027464386731463741</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B23" s="1">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2">
+        <v>355.93113875425252</v>
+      </c>
+      <c r="E23" s="2">
+        <v>175.93113875425254</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.025728181957894405</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B24" s="1">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2">
+        <v>9.0394049333513067</v>
+      </c>
+      <c r="E24" s="2">
+        <v>189.03940493335128</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.018623109769319194</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="1">
+        <v>1025</v>
+      </c>
+      <c r="B25" s="1">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2">
+        <v>8.8540027245862802</v>
+      </c>
+      <c r="E25" s="2">
+        <v>188.85400272458631</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.034275290269575806</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="1">
+        <v>1026</v>
+      </c>
+      <c r="B26" s="1">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2">
+        <v>90.059488764322566</v>
+      </c>
+      <c r="E26" s="2">
+        <v>270.05948876432257</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.018898064107911026</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="1">
+        <v>1027</v>
+      </c>
+      <c r="B27" s="1">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2">
+        <v>339.1384982667654</v>
+      </c>
+      <c r="E27" s="2">
+        <v>159.13849826676542</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.10313024790796391</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>10.000999999999999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="1">
+        <v>1028</v>
+      </c>
+      <c r="B28" s="1">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2">
+        <v>10.564110282984984</v>
+      </c>
+      <c r="E28" s="2">
+        <v>190.56411028298498</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.10738412187613261</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>10.000999999999999</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="2"/>
+      <c r="A29" s="1">
+        <v>1029</v>
+      </c>
+      <c r="B29" s="1">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2">
+        <v>146.90423941724799</v>
+      </c>
+      <c r="E29" s="2">
+        <v>326.90423941724799</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.11814089768513139</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>10.000999999999999</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="2"/>
+      <c r="A30" s="1">
+        <v>1030</v>
+      </c>
+      <c r="B30" s="1">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1">
+        <v>26</v>
+      </c>
+      <c r="D30" s="2">
+        <v>10.307965745602928</v>
+      </c>
+      <c r="E30" s="2">
+        <v>190.30796574560296</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.1233164185986667</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>10.000999999999999</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="2"/>
+      <c r="A31" s="1">
+        <v>1031</v>
+      </c>
+      <c r="B31" s="1">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1">
+        <v>28</v>
+      </c>
+      <c r="D31" s="2">
+        <v>138.40073199225077</v>
+      </c>
+      <c r="E31" s="2">
+        <v>318.40073199225077</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.062313529841290141</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>10.000999999999999</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="2"/>
+      <c r="A32" s="1">
+        <v>1032</v>
+      </c>
+      <c r="B32" s="1">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1">
+        <v>37</v>
+      </c>
+      <c r="D32" s="2">
+        <v>174.69707652321949</v>
+      </c>
+      <c r="E32" s="2">
+        <v>354.69707652321949</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.05172984646541065</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>10.000999999999999</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="2"/>
+      <c r="A33" s="1">
+        <v>1033</v>
+      </c>
+      <c r="B33" s="1">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1">
+        <v>29</v>
+      </c>
+      <c r="D33" s="2">
+        <v>42.82818445883413</v>
+      </c>
+      <c r="E33" s="2">
+        <v>222.8281844588341</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.11762938014123253</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>10.000999999999999</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="2"/>
+      <c r="A34" s="1">
+        <v>1034</v>
+      </c>
+      <c r="B34" s="1">
+        <v>29</v>
+      </c>
+      <c r="C34" s="1">
+        <v>30</v>
+      </c>
+      <c r="D34" s="2">
+        <v>56.735612550289829</v>
+      </c>
+      <c r="E34" s="2">
+        <v>236.73561255028983</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.067253642684391046</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>10.000999999999999</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="2"/>
+      <c r="A35" s="1">
+        <v>1035</v>
+      </c>
+      <c r="B35" s="1">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1">
+        <v>31</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3.6071503774012399</v>
+      </c>
+      <c r="E35" s="2">
+        <v>183.60715037740121</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.027113670815950348</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>10.000999999999999</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="2"/>
+      <c r="A36" s="1">
+        <v>1036</v>
+      </c>
+      <c r="B36" s="1">
+        <v>31</v>
+      </c>
+      <c r="C36" s="1">
+        <v>32</v>
+      </c>
+      <c r="D36" s="2">
+        <v>5.5652002577747908</v>
+      </c>
+      <c r="E36" s="2">
+        <v>185.56520025777476</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.0210110390590805</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>10.000999999999999</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="2"/>
+      <c r="A37" s="1">
+        <v>1037</v>
+      </c>
+      <c r="B37" s="1">
+        <v>38</v>
+      </c>
+      <c r="C37" s="1">
+        <v>37</v>
+      </c>
+      <c r="D37" s="2">
+        <v>328.85826848927536</v>
+      </c>
+      <c r="E37" s="2">
+        <v>148.85826848927539</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.1389350375777228</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>10.000999999999999</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="2"/>
+      <c r="A38" s="1">
+        <v>1038</v>
+      </c>
+      <c r="B38" s="1">
+        <v>33</v>
+      </c>
+      <c r="C38" s="1">
+        <v>29</v>
+      </c>
+      <c r="D38" s="2">
+        <v>354.31440441316471</v>
+      </c>
+      <c r="E38" s="2">
+        <v>174.31440441316471</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.13669337881509888</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>10.000999999999999</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="2"/>
+      <c r="A39" s="1">
+        <v>1039</v>
+      </c>
+      <c r="B39" s="1">
+        <v>35</v>
+      </c>
+      <c r="C39" s="1">
+        <v>36</v>
+      </c>
+      <c r="D39" s="2">
+        <v>8.1611884153800247</v>
+      </c>
+      <c r="E39" s="2">
+        <v>188.16118841538002</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.025645296065905133</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>10.000999999999999</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="2"/>
+      <c r="A40" s="1">
+        <v>1040</v>
+      </c>
+      <c r="B40" s="1">
+        <v>35</v>
+      </c>
+      <c r="C40" s="1">
+        <v>34</v>
+      </c>
+      <c r="D40" s="2">
+        <v>324.47117085438049</v>
+      </c>
+      <c r="E40" s="2">
+        <v>144.47117085438049</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.044989613753128384</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>10.000999999999999</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="2"/>
+      <c r="A41" s="1">
+        <v>1041</v>
+      </c>
+      <c r="B41" s="1">
+        <v>34</v>
+      </c>
+      <c r="C41" s="1">
+        <v>33</v>
+      </c>
+      <c r="D41" s="2">
+        <v>330.23803407474657</v>
+      </c>
+      <c r="E41" s="2">
+        <v>150.23803407474659</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.029761890903407261</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>10.000999999999999</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="16.5">
       <c r="A42" s="1"/>
